--- a/database/Mahjong_Table_List_230820.xlsx
+++ b/database/Mahjong_Table_List_230820.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzzzin/WorkSpace/mahjongScore/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AEBF1B-AC79-234D-8EE3-D8933D055467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF26E51D-3526-7845-9854-964B2541F911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76800" yWindow="23280" windowWidth="28800" windowHeight="18000" xr2:uid="{F40D9CAE-C989-7A43-9DC9-68E45FEDD6A7}"/>
+    <workbookView xWindow="79960" yWindow="24100" windowWidth="28800" windowHeight="17500" xr2:uid="{F40D9CAE-C989-7A43-9DC9-68E45FEDD6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Mahjong_Score" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="229">
   <si>
     <t>구분</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1497,6 +1497,69 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1513,69 +1576,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1891,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F81CE-CC72-FE44-AF16-180D822CCB8D}">
-  <dimension ref="B1:O156"/>
+  <dimension ref="B1:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1917,10 +1917,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1953,13 +1953,13 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="89" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1972,7 +1972,7 @@
       <c r="H3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="103" t="s">
         <v>69</v>
       </c>
       <c r="J3" s="10"/>
@@ -1981,9 +1981,9 @@
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="102"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="12" t="s">
         <v>39</v>
       </c>
@@ -1991,167 +1991,162 @@
       <c r="H4" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="99"/>
+      <c r="I4" s="104"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="100"/>
+        <v>225</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="104"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="102"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="107"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="104"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="107"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I7" s="99"/>
+        <v>51</v>
+      </c>
+      <c r="I7" s="105"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="102"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="12" t="s">
+    <row r="8" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="107"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="107"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="104"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="107"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="102"/>
-      <c r="C9" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="102"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="30"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="102"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="74" t="s">
+    <row r="11" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="107"/>
+      <c r="C11" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="102"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="16"/>
@@ -2159,18 +2154,18 @@
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="102"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="12" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="I13" s="74" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="16"/>
@@ -2178,59 +2173,61 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="102"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="12" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="J14" s="30"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="102"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="J15" s="30"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="102"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="85" t="s">
+      <c r="B16" s="107"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="74" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="16"/>
@@ -2239,21 +2236,18 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="102"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -2261,62 +2255,60 @@
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="102"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="30"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="102"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="12" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I19" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="102"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="I20" s="74" t="s">
         <v>71</v>
@@ -2326,205 +2318,210 @@
       <c r="L20" s="16"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="102"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="26" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="107"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="107"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="63" t="s">
         <v>59</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="102"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="J22" s="30"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="102"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="74" t="s">
+    <row r="23" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="107"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="17"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="102"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="17"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="102"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="12" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="I25" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="102"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="16"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="30"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="102"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="I27" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="J27" s="30"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="102"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="30"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="102"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="12" t="s">
-        <v>39</v>
+        <v>173</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I29" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="102"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="88" t="s">
+      <c r="B30" s="107"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="74" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="30"/>
@@ -2532,104 +2529,102 @@
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
     </row>
-    <row r="31" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="102"/>
-      <c r="C31" s="103" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="107"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="107"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="107"/>
+      <c r="C33" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D33" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E33" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F33" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="83"/>
-    </row>
-    <row r="32" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="102"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="27" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="83"/>
+    </row>
+    <row r="34" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="107"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F34" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="84" t="s">
+      <c r="I34" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="102"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="12" t="s">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="107"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F35" s="32" t="s">
         <v>59</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="102"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="102"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>147</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I35" s="75" t="s">
         <v>75</v>
@@ -2639,41 +2634,38 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="102"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="96"/>
+    <row r="36" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="107"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="13" t="s">
-        <v>175</v>
+      <c r="H36" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="I36" s="75" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B37" s="102"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="96"/>
+    <row r="37" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="107"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="13" t="s">
-        <v>91</v>
+      <c r="H37" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I37" s="75" t="s">
         <v>75</v>
@@ -2683,19 +2675,19 @@
       <c r="L37" s="16"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="102"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="96"/>
+    <row r="38" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B38" s="107"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>94</v>
+      <c r="H38" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="I38" s="75" t="s">
         <v>75</v>
@@ -2705,19 +2697,19 @@
       <c r="L38" s="16"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="102"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="96"/>
+    <row r="39" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B39" s="107"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>95</v>
+      <c r="H39" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="I39" s="75" t="s">
         <v>75</v>
@@ -2728,18 +2720,18 @@
       <c r="M39" s="17"/>
     </row>
     <row r="40" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="102"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="96"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I40" s="75" t="s">
         <v>75</v>
@@ -2750,18 +2742,18 @@
       <c r="M40" s="17"/>
     </row>
     <row r="41" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B41" s="102"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="96"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="93"/>
       <c r="E41" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F41" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I41" s="75" t="s">
         <v>75</v>
@@ -2772,18 +2764,18 @@
       <c r="M41" s="17"/>
     </row>
     <row r="42" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="102"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="96"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="12" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="I42" s="75" t="s">
         <v>75</v>
@@ -2794,18 +2786,18 @@
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B43" s="102"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="96"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="93"/>
       <c r="E43" s="12" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="I43" s="75" t="s">
         <v>75</v>
@@ -2816,21 +2808,21 @@
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="102"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="96"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I44" s="75" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
@@ -2838,18 +2830,18 @@
       <c r="M44" s="17"/>
     </row>
     <row r="45" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="102"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="96"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="12" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="I45" s="75" t="s">
         <v>75</v>
@@ -2860,21 +2852,21 @@
       <c r="M45" s="17"/>
     </row>
     <row r="46" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B46" s="102"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="56" t="s">
+      <c r="B46" s="107"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I46" s="80" t="s">
-        <v>75</v>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="75" t="s">
+        <v>69</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
@@ -2882,21 +2874,21 @@
       <c r="M46" s="17"/>
     </row>
     <row r="47" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B47" s="102"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="96"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="93"/>
       <c r="E47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="I47" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
@@ -2904,38 +2896,40 @@
       <c r="M47" s="17"/>
     </row>
     <row r="48" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B48" s="102"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I48" s="75" t="s">
-        <v>76</v>
+      <c r="B48" s="107"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="80" t="s">
+        <v>75</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="17"/>
     </row>
-    <row r="49" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B49" s="102"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="96"/>
+    <row r="49" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="107"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="93"/>
       <c r="E49" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="13" t="s">
-        <v>92</v>
+      <c r="H49" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I49" s="75" t="s">
         <v>76</v>
@@ -2946,16 +2940,16 @@
       <c r="M49" s="17"/>
     </row>
     <row r="50" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B50" s="102"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="96"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="93"/>
       <c r="E50" s="12" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="I50" s="75" t="s">
         <v>76</v>
@@ -2965,19 +2959,19 @@
       <c r="L50" s="16"/>
       <c r="M50" s="17"/>
     </row>
-    <row r="51" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="102"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="96"/>
+    <row r="51" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B51" s="107"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="93"/>
       <c r="E51" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>108</v>
+      <c r="H51" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="I51" s="75" t="s">
         <v>76</v>
@@ -2988,18 +2982,16 @@
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B52" s="102"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="97"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="80" t="s">
-        <v>59</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F52" s="32"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="I52" s="75" t="s">
         <v>76</v>
@@ -3009,87 +3001,90 @@
       <c r="L52" s="16"/>
       <c r="M52" s="17"/>
     </row>
-    <row r="53" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="102"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>127</v>
+    <row r="53" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="107"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="11"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="17"/>
     </row>
     <row r="54" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B54" s="102"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="80" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="I54" s="75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="17"/>
     </row>
-    <row r="55" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="102"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="12" t="s">
-        <v>126</v>
+    <row r="55" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="107"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="F55" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I55" s="75" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="17"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="11"/>
     </row>
     <row r="56" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="102"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="12" t="s">
-        <v>130</v>
+        <v>197</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="I56" s="75" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
@@ -3097,18 +3092,18 @@
       <c r="M56" s="17"/>
     </row>
     <row r="57" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B57" s="102"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>49</v>
+        <v>126</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="I57" s="75" t="s">
         <v>75</v>
@@ -3118,41 +3113,38 @@
       <c r="L57" s="16"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B58" s="102"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
+    <row r="58" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="107"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="13" t="s">
-        <v>175</v>
+      <c r="H58" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="I58" s="75" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B59" s="102"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
+    <row r="59" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" s="107"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
       <c r="E59" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>184</v>
+        <v>66</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="I59" s="75" t="s">
         <v>75</v>
@@ -3162,19 +3154,19 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" spans="2:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="B60" s="102"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
+    <row r="60" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B60" s="107"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>94</v>
+      <c r="H60" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="I60" s="75" t="s">
         <v>75</v>
@@ -3184,19 +3176,19 @@
       <c r="L60" s="16"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="2:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="102"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
+    <row r="61" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B61" s="107"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I61" s="75" t="s">
         <v>75</v>
@@ -3206,19 +3198,19 @@
       <c r="L61" s="16"/>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B62" s="102"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
+    <row r="62" spans="2:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="B62" s="107"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I62" s="75" t="s">
         <v>75</v>
@@ -3229,18 +3221,18 @@
       <c r="M62" s="17"/>
     </row>
     <row r="63" spans="2:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="B63" s="102"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I63" s="75" t="s">
         <v>75</v>
@@ -3250,17 +3242,19 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
     </row>
-    <row r="64" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B64" s="102"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
+    <row r="64" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B64" s="107"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
       <c r="E64" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>186</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="I64" s="75" t="s">
         <v>75</v>
@@ -3270,19 +3264,19 @@
       <c r="L64" s="16"/>
       <c r="M64" s="17"/>
     </row>
-    <row r="65" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B65" s="102"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="104"/>
+    <row r="65" spans="2:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="B65" s="107"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="I65" s="75" t="s">
         <v>75</v>
@@ -3293,19 +3287,19 @@
       <c r="M65" s="17"/>
     </row>
     <row r="66" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B66" s="102"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I66" s="75" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
@@ -3313,16 +3307,18 @@
       <c r="M66" s="17"/>
     </row>
     <row r="67" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B67" s="102"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="32"/>
+        <v>205</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="I67" s="75" t="s">
         <v>75</v>
@@ -3333,81 +3329,82 @@
       <c r="M67" s="17"/>
     </row>
     <row r="68" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B68" s="102"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="F68" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="18" t="s">
-        <v>151</v>
+      <c r="B68" s="107"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="31"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="I68" s="75" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
       <c r="M68" s="17"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B69" s="102"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
+    <row r="69" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B69" s="107"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
       <c r="E69" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F69" s="32"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="74" t="s">
-        <v>76</v>
+        <v>189</v>
+      </c>
+      <c r="I69" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
       <c r="M69" s="17"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="102"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I70" s="74" t="s">
-        <v>76</v>
+    <row r="70" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B70" s="107"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
       <c r="M70" s="17"/>
     </row>
-    <row r="71" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B71" s="102"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" s="107"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="32"/>
+        <v>54</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I71" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="74" t="s">
         <v>76</v>
       </c>
       <c r="J71" s="16"/>
@@ -3415,134 +3412,129 @@
       <c r="L71" s="16"/>
       <c r="M71" s="17"/>
     </row>
-    <row r="72" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="102"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="19" t="s">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="107"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I72" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="107"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" s="107"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F72" s="56" t="s">
+      <c r="F74" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23" t="s">
+      <c r="G74" s="23"/>
+      <c r="H74" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I72" s="76" t="s">
+      <c r="I74" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="25"/>
-    </row>
-    <row r="73" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="102"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="95" t="s">
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="25"/>
+    </row>
+    <row r="75" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="107"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F75" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I73" s="84" t="s">
+      <c r="I75" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B74" s="102"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="12" t="s">
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="76" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B76" s="107"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F76" s="31" t="s">
         <v>59</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I74" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="17"/>
-    </row>
-    <row r="75" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B75" s="102"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I75" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="17"/>
-    </row>
-    <row r="76" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B76" s="102"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="I76" s="75" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
       <c r="M76" s="17"/>
     </row>
-    <row r="77" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B77" s="102"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="96"/>
+    <row r="77" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B77" s="107"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>49</v>
       </c>
       <c r="G77" s="1"/>
-      <c r="H77" s="13" t="s">
-        <v>92</v>
+      <c r="H77" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I77" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
@@ -3550,38 +3542,40 @@
       <c r="M77" s="17"/>
     </row>
     <row r="78" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B78" s="102"/>
-      <c r="C78" s="104"/>
-      <c r="D78" s="96"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="93"/>
       <c r="E78" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="31"/>
+        <v>67</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="G78" s="1"/>
-      <c r="H78" s="13" t="s">
-        <v>90</v>
+      <c r="H78" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="I78" s="75" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B79" s="102"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="96"/>
+    <row r="79" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B79" s="107"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F79" s="31" t="s">
         <v>49</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I79" s="75" t="s">
         <v>76</v>
@@ -3592,20 +3586,18 @@
       <c r="M79" s="17"/>
     </row>
     <row r="80" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B80" s="102"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F80" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="I80" s="80" t="s">
+      <c r="B80" s="107"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="31"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="75" t="s">
         <v>76</v>
       </c>
       <c r="J80" s="16"/>
@@ -3614,808 +3606,800 @@
       <c r="M80" s="17"/>
     </row>
     <row r="81" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B81" s="102"/>
-      <c r="C81" s="103" t="s">
+      <c r="B81" s="107"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="103"/>
-      <c r="E81" s="60" t="s">
+      <c r="F81" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B82" s="107"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I82" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="107"/>
+      <c r="C83" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="89"/>
+      <c r="E83" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F81" s="77" t="s">
+      <c r="F83" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="78"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="83"/>
-    </row>
-    <row r="82" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="102"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
-      <c r="E82" s="12" t="s">
+      <c r="G83" s="78"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="82"/>
+      <c r="K83" s="82"/>
+      <c r="L83" s="82"/>
+      <c r="M83" s="83"/>
+    </row>
+    <row r="84" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="107"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I82" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="11"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B83" s="102"/>
-      <c r="C83" s="104"/>
-      <c r="D83" s="104"/>
-      <c r="E83" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I83" s="93"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="17"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B84" s="102"/>
-      <c r="C84" s="104"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I84" s="93"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="I84" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B85" s="102"/>
-      <c r="C85" s="104"/>
-      <c r="D85" s="104"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="12" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I85" s="93"/>
+        <v>171</v>
+      </c>
+      <c r="I85" s="114"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
       <c r="M85" s="17"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B86" s="102"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90"/>
       <c r="E86" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="32"/>
+        <v>225</v>
+      </c>
+      <c r="F86" s="31"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I86" s="93"/>
+        <v>227</v>
+      </c>
+      <c r="I86" s="114"/>
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
       <c r="M86" s="17"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B87" s="102"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="104"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="12" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I87" s="93"/>
+        <v>228</v>
+      </c>
+      <c r="I87" s="114"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
       <c r="M87" s="17"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B88" s="102"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="104"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I88" s="93"/>
+        <v>109</v>
+      </c>
+      <c r="I88" s="114"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
       <c r="M88" s="17"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="102"/>
-      <c r="C89" s="104"/>
-      <c r="D89" s="104"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="90"/>
       <c r="E89" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I89" s="93"/>
+        <v>110</v>
+      </c>
+      <c r="I89" s="114"/>
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
       <c r="M89" s="17"/>
     </row>
-    <row r="90" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="102"/>
-      <c r="C90" s="104"/>
-      <c r="D90" s="104"/>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B90" s="107"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="90"/>
       <c r="E90" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" s="31"/>
+        <v>99</v>
+      </c>
+      <c r="F90" s="32"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I90" s="93"/>
+      <c r="H90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" s="114"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
       <c r="M90" s="17"/>
     </row>
-    <row r="91" spans="2:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="B91" s="102"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B91" s="107"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="F91" s="31"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I91" s="93"/>
+      <c r="H91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I91" s="114"/>
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B92" s="102"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="104"/>
+    <row r="92" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B92" s="107"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="90"/>
       <c r="E92" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I92" s="93"/>
+      <c r="H92" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I92" s="114"/>
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B93" s="102"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
+    <row r="93" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B93" s="107"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F93" s="31"/>
+        <v>102</v>
+      </c>
+      <c r="F93" s="32"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I93" s="93"/>
+      <c r="H93" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I93" s="114"/>
       <c r="J93" s="16"/>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
       <c r="M93" s="17"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B94" s="102"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="104"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="90"/>
       <c r="E94" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I94" s="93"/>
+        <v>114</v>
+      </c>
+      <c r="I94" s="114"/>
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
       <c r="M94" s="17"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="102"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="104"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F95" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="F95" s="31"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I95" s="93"/>
+        <v>115</v>
+      </c>
+      <c r="I95" s="114"/>
       <c r="J95" s="16"/>
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
       <c r="M95" s="17"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B96" s="102"/>
-      <c r="C96" s="104"/>
-      <c r="D96" s="104"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="90"/>
       <c r="E96" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I96" s="94"/>
+        <v>117</v>
+      </c>
+      <c r="I96" s="114"/>
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
       <c r="M96" s="17"/>
     </row>
-    <row r="97" spans="2:15" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="34"/>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97" s="107"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="32"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I97" s="114"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="17"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="108" t="s">
+      <c r="B98" s="107"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="90"/>
+      <c r="E98" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="31"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I98" s="115"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="2:15" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="34"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="110" t="s">
+      <c r="C100" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="6" t="s">
+      <c r="D100" s="27"/>
+      <c r="E100" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="89" t="s">
+      <c r="F100" s="7"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K100" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L98" s="7" t="s">
+      <c r="L100" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M98" s="6"/>
-      <c r="O98" s="1" t="str">
-        <f t="shared" ref="O98:O143" si="0">CONCATENATE(J98," ",K98," ",L98," ",IF(ISBLANK(M98),"",CONCATENATE("DEFAULT ",M98)),",")</f>
+      <c r="M100" s="6"/>
+      <c r="O100" s="1" t="str">
+        <f t="shared" ref="O100:O145" si="0">CONCATENATE(J100," ",K100," ",L100," ",IF(ISBLANK(M100),"",CONCATENATE("DEFAULT ",M100)),",")</f>
         <v>member_no INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="109"/>
-      <c r="C99" s="113"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M99" s="12"/>
-      <c r="O99" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>member_name VARCHAR(50) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="109"/>
-      <c r="C100" s="113"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I100" s="90"/>
-      <c r="J100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L100" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M100" s="12">
-        <v>1</v>
-      </c>
-      <c r="O100" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>use_yn TINYINT(1) NOT NULL DEFAULT 1,</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="109"/>
-      <c r="C101" s="113"/>
-      <c r="D101" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="90"/>
-      <c r="J101" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L101" s="7" t="s">
+      <c r="C101" s="98"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M101" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="M101" s="12"/>
       <c r="O101" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
+        <v>member_name VARCHAR(50) NOT NULL ,</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="109"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="96"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="29"/>
       <c r="E102" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="90"/>
+        <v>29</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="111"/>
       <c r="J102" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M102" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="L102" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M102" s="12">
+        <v>1</v>
+      </c>
       <c r="O102" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>created_by TEXT NULL ,</v>
+        <v>use_yn TINYINT(1) NOT NULL DEFAULT 1,</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="109"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="96"/>
-      <c r="E103" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="90"/>
-      <c r="J103" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K103" s="1" t="s">
+      <c r="C103" s="98"/>
+      <c r="D103" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="26"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L103" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M103" s="12" t="s">
-        <v>44</v>
+      <c r="L103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="O103" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="109"/>
-      <c r="C104" s="114"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="20"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="91"/>
-      <c r="J104" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K104" s="58" t="s">
+      <c r="C104" s="98"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L104" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="M104" s="59" t="s">
-        <v>37</v>
-      </c>
+      <c r="L104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="12"/>
       <c r="O104" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
+        <v>created_by TEXT NULL ,</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="109"/>
-      <c r="C105" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M105" s="6"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O105" s="1" t="str">
-        <f t="shared" ref="O105:O111" si="1">CONCATENATE(J105," ",K105," ",L105," ",IF(ISBLANK(M105),"",CONCATENATE("DEFAULT ",M105)),",")</f>
-        <v>location_no INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
+        <f t="shared" si="0"/>
+        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="109"/>
-      <c r="C106" s="113"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="12" t="s">
+      <c r="C106" s="99"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="20"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="112"/>
+      <c r="J106" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M106" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O106" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B107" s="109"/>
+      <c r="C107" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="27"/>
+      <c r="E107" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="6"/>
+      <c r="O107" s="1" t="str">
+        <f t="shared" ref="O107:O113" si="1">CONCATENATE(J107," ",K107," ",L107," ",IF(ISBLANK(M107),"",CONCATENATE("DEFAULT ",M107)),",")</f>
+        <v>location_no INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B108" s="109"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="1" t="s">
+      <c r="H108" s="15"/>
+      <c r="I108" s="111"/>
+      <c r="J108" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="L108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M106" s="12"/>
-      <c r="O106" s="1" t="str">
+      <c r="M108" s="12"/>
+      <c r="O108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>location_name VARCHAR(50) NOT NULL ,</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="109"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="12" t="s">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B109" s="109"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H109" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I107" s="90"/>
-      <c r="J107" s="1" t="s">
+      <c r="I109" s="111"/>
+      <c r="J109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L107" s="23" t="s">
+      <c r="L109" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M107" s="12">
+      <c r="M109" s="12">
         <v>1</v>
       </c>
-      <c r="O107" s="1" t="str">
+      <c r="O109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>use_yn TINYINT(1) NOT NULL DEFAULT 1,</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="109"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="95" t="s">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B110" s="109"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="26"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="90"/>
-      <c r="J108" s="7" t="s">
+      <c r="F110" s="26"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K108" s="7" t="s">
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L108" s="7" t="s">
+      <c r="L110" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M108" s="6" t="s">
+      <c r="M110" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O108" s="1" t="str">
+      <c r="O110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="109"/>
-      <c r="C109" s="113"/>
-      <c r="D109" s="96"/>
-      <c r="E109" s="12" t="s">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B111" s="109"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="1" t="s">
+      <c r="F111" s="13"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="111"/>
+      <c r="J111" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="L111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M109" s="12"/>
-      <c r="O109" s="1" t="str">
+      <c r="M111" s="12"/>
+      <c r="O111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>created_by TEXT NULL ,</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="109"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="96"/>
-      <c r="E110" s="12" t="s">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B112" s="109"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="93"/>
+      <c r="E112" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="1" t="s">
+      <c r="F112" s="13"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="111"/>
+      <c r="J112" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="K112" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="L112" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M110" s="12" t="s">
+      <c r="M112" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O110" s="1" t="str">
+      <c r="O112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="109"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="97"/>
-      <c r="E111" s="19" t="s">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B113" s="109"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="91"/>
-      <c r="J111" s="58" t="s">
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="112"/>
+      <c r="J113" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K111" s="58" t="s">
+      <c r="K113" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L111" s="58" t="s">
+      <c r="L113" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="M111" s="59" t="s">
+      <c r="M113" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="O111" s="1" t="str">
+      <c r="O113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="109"/>
-      <c r="C112" s="110" t="s">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B114" s="109"/>
+      <c r="C114" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6" t="s">
+      <c r="D114" s="6"/>
+      <c r="E114" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="89" t="s">
+      <c r="F114" s="7"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="J114" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K112" s="7" t="s">
+      <c r="K114" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L112" s="7" t="s">
+      <c r="L114" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M112" s="6"/>
-      <c r="O112" s="1" t="str">
+      <c r="M114" s="6"/>
+      <c r="O114" s="1" t="str">
         <f t="shared" si="0"/>
         <v>meet_no INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B113" s="109"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F113" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I113" s="90"/>
-      <c r="J113" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M113" s="12"/>
-      <c r="O113" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>meet_day DATE NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="114" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B114" s="109"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F114" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="90"/>
-      <c r="J114" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M114" s="12"/>
-      <c r="O114" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>meet_time TIME NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B115" s="109"/>
-      <c r="C115" s="113"/>
+      <c r="C115" s="98"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F115" s="32"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="90"/>
+        <v>134</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I115" s="111"/>
       <c r="J115" s="1" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>26</v>
@@ -4423,338 +4407,334 @@
       <c r="M115" s="12"/>
       <c r="O115" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>location_no INT UNSIGNED NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+        <v>meet_day DATE NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B116" s="109"/>
-      <c r="C116" s="113"/>
+      <c r="C116" s="98"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F116" s="32"/>
+        <v>131</v>
+      </c>
+      <c r="F116" s="32" t="s">
+        <v>136</v>
+      </c>
       <c r="H116" s="13"/>
-      <c r="I116" s="90"/>
+      <c r="I116" s="111"/>
       <c r="J116" s="1" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M116" s="12"/>
       <c r="O116" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>win_member_no INT UNSIGNED NULL ,</v>
+        <v>meet_time TIME NOT NULL ,</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="109"/>
-      <c r="C117" s="113"/>
-      <c r="D117" s="29"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="12"/>
       <c r="E117" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I117" s="90"/>
+        <v>200</v>
+      </c>
+      <c r="F117" s="32"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="111"/>
       <c r="J117" s="1" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M117" s="12">
-        <v>0</v>
-      </c>
+      <c r="M117" s="12"/>
       <c r="O117" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>end_yn TINYINT(1) NOT NULL DEFAULT 0,</v>
+        <v>location_no INT UNSIGNED NOT NULL ,</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="109"/>
-      <c r="C118" s="113"/>
-      <c r="D118" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="26"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="90"/>
-      <c r="J118" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L118" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M118" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C118" s="98"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F118" s="32"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M118" s="12"/>
       <c r="O118" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
+        <v>win_member_no INT UNSIGNED NULL ,</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="109"/>
-      <c r="C119" s="113"/>
-      <c r="D119" s="113"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="29"/>
       <c r="E119" s="12" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="14"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="90"/>
+      <c r="H119" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I119" s="111"/>
       <c r="J119" s="1" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M119" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="M119" s="12">
+        <v>0</v>
+      </c>
       <c r="O119" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>created_by TEXT NULL ,</v>
+        <v>end_yn TINYINT(1) NOT NULL DEFAULT 0,</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="109"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
-      <c r="E120" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="90"/>
-      <c r="J120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K120" s="1" t="s">
+      <c r="C120" s="98"/>
+      <c r="D120" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="26"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="111"/>
+      <c r="J120" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L120" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M120" s="12" t="s">
-        <v>44</v>
+      <c r="L120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="O120" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="109"/>
-      <c r="C121" s="114"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="20"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K121" s="58" t="s">
+      <c r="C121" s="98"/>
+      <c r="D121" s="98"/>
+      <c r="E121" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="13"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="111"/>
+      <c r="J121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L121" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="M121" s="59" t="s">
-        <v>37</v>
-      </c>
+      <c r="L121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M121" s="12"/>
       <c r="O121" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
+        <v>created_by TEXT NULL ,</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="109"/>
-      <c r="C122" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="29"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="98"/>
       <c r="E122" s="12" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F122" s="13"/>
       <c r="G122" s="14"/>
       <c r="H122" s="15"/>
-      <c r="I122" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="J122" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M122" s="6"/>
+      <c r="I122" s="111"/>
+      <c r="J122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M122" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O122" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seq INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
-      </c>
-    </row>
-    <row r="123" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="109"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F123" s="32"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I123" s="90"/>
-      <c r="J123" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L123" s="13" t="s">
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="112"/>
+      <c r="J123" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L123" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="M123" s="12"/>
+      <c r="M123" s="59" t="s">
+        <v>37</v>
+      </c>
       <c r="O123" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>meet_no INT UNSIGNED NOT NULL ,</v>
+        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="109"/>
-      <c r="C124" s="111"/>
+      <c r="C124" s="95" t="s">
+        <v>124</v>
+      </c>
       <c r="D124" s="29"/>
       <c r="E124" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="14"/>
-      <c r="H124" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I124" s="90"/>
-      <c r="J124" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M124" s="12"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="J124" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124" s="6"/>
       <c r="O124" s="1" t="str">
-        <f t="shared" ref="O124" si="2">CONCATENATE(J124," ",K124," ",L124," ",IF(ISBLANK(M124),"",CONCATENATE("DEFAULT ",M124)),",")</f>
-        <v>member_no INT UNSIGNED NOT NULL ,</v>
+        <f t="shared" si="0"/>
+        <v>seq INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
       </c>
     </row>
     <row r="125" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B125" s="109"/>
-      <c r="C125" s="111"/>
+      <c r="C125" s="96"/>
       <c r="D125" s="29"/>
       <c r="E125" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F125" s="32" t="s">
-        <v>143</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F125" s="32"/>
       <c r="G125" s="14"/>
       <c r="H125" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I125" s="90"/>
+        <v>140</v>
+      </c>
+      <c r="I125" s="111"/>
       <c r="J125" s="62" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="L125" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="M125" s="12"/>
       <c r="O125" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>attend_yn TINYINT(1) NULL ,</v>
+        <v>meet_no INT UNSIGNED NOT NULL ,</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="109"/>
-      <c r="C126" s="111"/>
-      <c r="D126" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="26"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="90"/>
-      <c r="J126" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L126" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M126" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C126" s="96"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F126" s="13"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I126" s="111"/>
+      <c r="J126" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M126" s="12"/>
       <c r="O126" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O126" si="2">CONCATENATE(J126," ",K126," ",L126," ",IF(ISBLANK(M126),"",CONCATENATE("DEFAULT ",M126)),",")</f>
+        <v>member_no INT UNSIGNED NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B127" s="109"/>
-      <c r="C127" s="111"/>
-      <c r="D127" s="96"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="29"/>
       <c r="E127" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F127" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>143</v>
+      </c>
       <c r="G127" s="14"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="90"/>
-      <c r="J127" s="1" t="s">
-        <v>18</v>
+      <c r="H127" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I127" s="111"/>
+      <c r="J127" s="62" t="s">
+        <v>139</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>25</v>
@@ -4762,409 +4742,409 @@
       <c r="M127" s="12"/>
       <c r="O127" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>created_by TEXT NULL ,</v>
+        <v>attend_yn TINYINT(1) NULL ,</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="109"/>
-      <c r="C128" s="111"/>
-      <c r="D128" s="96"/>
-      <c r="E128" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F128" s="13"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="90"/>
-      <c r="J128" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K128" s="1" t="s">
+      <c r="C128" s="96"/>
+      <c r="D128" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="26"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L128" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M128" s="12" t="s">
-        <v>44</v>
+      <c r="L128" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="O128" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" s="109"/>
-      <c r="C129" s="112"/>
-      <c r="D129" s="97"/>
-      <c r="E129" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" s="20"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="91"/>
-      <c r="J129" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K129" s="58" t="s">
+      <c r="C129" s="96"/>
+      <c r="D129" s="93"/>
+      <c r="E129" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="13"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="111"/>
+      <c r="J129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L129" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="M129" s="59" t="s">
-        <v>37</v>
-      </c>
+      <c r="L129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M129" s="12"/>
       <c r="O129" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
+        <v>created_by TEXT NULL ,</v>
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" s="109"/>
-      <c r="C130" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D130" s="29"/>
+      <c r="C130" s="96"/>
+      <c r="D130" s="93"/>
       <c r="E130" s="12" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="F130" s="13"/>
       <c r="G130" s="14"/>
       <c r="H130" s="15"/>
-      <c r="I130" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="J130" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="K130" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L130" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M130" s="6"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M130" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O130" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>game_no INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131" s="109"/>
-      <c r="C131" s="111"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="90"/>
-      <c r="J131" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L131" s="13" t="s">
+      <c r="C131" s="97"/>
+      <c r="D131" s="94"/>
+      <c r="E131" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="20"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="112"/>
+      <c r="J131" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L131" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="M131" s="12"/>
+      <c r="M131" s="59" t="s">
+        <v>37</v>
+      </c>
       <c r="O131" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>meet_no INT UNSIGNED NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132" s="109"/>
-      <c r="C132" s="111"/>
+      <c r="C132" s="95" t="s">
+        <v>62</v>
+      </c>
       <c r="D132" s="29"/>
       <c r="E132" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F132" s="31" t="s">
-        <v>147</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F132" s="13"/>
       <c r="G132" s="14"/>
       <c r="H132" s="15"/>
-      <c r="I132" s="90"/>
-      <c r="J132" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L132" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M132" s="12"/>
+      <c r="I132" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J132" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M132" s="6"/>
       <c r="O132" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>game_number VARCHAR(10) NOT NULL ,</v>
+        <v>game_no INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
       </c>
     </row>
     <row r="133" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B133" s="109"/>
-      <c r="C133" s="111"/>
+      <c r="C133" s="96"/>
       <c r="D133" s="29"/>
       <c r="E133" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>155</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F133" s="13"/>
       <c r="G133" s="14"/>
-      <c r="H133" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="I133" s="90"/>
-      <c r="J133" s="1" t="s">
-        <v>152</v>
+      <c r="H133" s="15"/>
+      <c r="I133" s="111"/>
+      <c r="J133" s="62" t="s">
+        <v>128</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="L133" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M133" s="12">
-        <v>4</v>
-      </c>
+      <c r="M133" s="12"/>
       <c r="O133" s="1" t="str">
-        <f t="shared" ref="O133:O141" si="3">CONCATENATE(J133," ",K133," ",L133," ",IF(ISBLANK(M133),"",CONCATENATE("DEFAULT ",M133)),",")</f>
-        <v>game_member_count SMALLINT NOT NULL DEFAULT 4,</v>
+        <f t="shared" si="0"/>
+        <v>meet_no INT UNSIGNED NOT NULL ,</v>
       </c>
     </row>
     <row r="134" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B134" s="109"/>
-      <c r="C134" s="111"/>
+      <c r="C134" s="96"/>
       <c r="D134" s="29"/>
       <c r="E134" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="G134" s="14"/>
-      <c r="H134" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="I134" s="90"/>
-      <c r="J134" s="1" t="s">
-        <v>153</v>
+      <c r="H134" s="15"/>
+      <c r="I134" s="111"/>
+      <c r="J134" s="62" t="s">
+        <v>146</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L134" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M134" s="12" t="s">
+      <c r="M134" s="12"/>
+      <c r="O134" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>game_number VARCHAR(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B135" s="109"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I135" s="111"/>
+      <c r="J135" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L135" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M135" s="12">
+        <v>4</v>
+      </c>
+      <c r="O135" s="1" t="str">
+        <f t="shared" ref="O135:O143" si="3">CONCATENATE(J135," ",K135," ",L135," ",IF(ISBLANK(M135),"",CONCATENATE("DEFAULT ",M135)),",")</f>
+        <v>game_member_count SMALLINT NOT NULL DEFAULT 4,</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B136" s="109"/>
+      <c r="C136" s="96"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G136" s="14"/>
+      <c r="H136" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I136" s="111"/>
+      <c r="J136" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L136" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M136" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="O134" s="1" t="str">
+      <c r="O136" s="1" t="str">
         <f t="shared" si="3"/>
         <v>game_type VARCHAR(5) NOT NULL DEFAULT HALF,</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B135" s="109"/>
-      <c r="C135" s="111"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="12" t="s">
+    <row r="137" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B137" s="109"/>
+      <c r="C137" s="96"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F135" s="13" t="s">
+      <c r="F137" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G135" s="14"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="90"/>
-      <c r="J135" s="1" t="s">
+      <c r="G137" s="14"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="111"/>
+      <c r="J137" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="K137" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L135" s="13" t="s">
+      <c r="L137" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M135" s="12">
+      <c r="M137" s="12">
         <v>25000</v>
       </c>
-      <c r="O135" s="1" t="str">
+      <c r="O137" s="1" t="str">
         <f t="shared" si="3"/>
         <v>start_score INT NOT NULL DEFAULT 25000,</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B136" s="109"/>
-      <c r="C136" s="111"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="12" t="s">
+    <row r="138" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B138" s="109"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F136" s="13" t="s">
+      <c r="F138" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="90"/>
-      <c r="J136" s="1" t="s">
+      <c r="G138" s="14"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="111"/>
+      <c r="J138" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="K138" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L136" s="13" t="s">
+      <c r="L138" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M136" s="12">
+      <c r="M138" s="12">
         <v>30000</v>
       </c>
-      <c r="O136" s="1" t="str">
+      <c r="O138" s="1" t="str">
         <f t="shared" si="3"/>
         <v>return_score INT NOT NULL DEFAULT 30000,</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B137" s="109"/>
-      <c r="C137" s="111"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="12" t="s">
+    <row r="139" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B139" s="109"/>
+      <c r="C139" s="96"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F137" s="13" t="s">
+      <c r="F139" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G137" s="14"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="90"/>
-      <c r="J137" s="1" t="s">
+      <c r="G139" s="14"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="111"/>
+      <c r="J139" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="K139" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L137" s="13" t="s">
+      <c r="L139" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M137" s="12">
+      <c r="M139" s="12">
         <v>20</v>
       </c>
-      <c r="O137" s="1" t="str">
+      <c r="O139" s="1" t="str">
         <f t="shared" si="3"/>
         <v>oka_point SMALLINT NOT NULL DEFAULT 20,</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B138" s="109"/>
-      <c r="C138" s="111"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="12" t="s">
+    <row r="140" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B140" s="109"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="G138" s="14"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="90"/>
-      <c r="J138" s="1" t="s">
+      <c r="G140" s="14"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="111"/>
+      <c r="J140" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K138" s="1" t="s">
+      <c r="K140" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L138" s="13" t="s">
+      <c r="L140" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M138" s="12">
+      <c r="M140" s="12">
         <v>10</v>
       </c>
-      <c r="O138" s="1" t="str">
+      <c r="O140" s="1" t="str">
         <f t="shared" si="3"/>
         <v>uma_point SMALLINT NOT NULL DEFAULT 10,</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B139" s="109"/>
-      <c r="C139" s="111"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="I139" s="90"/>
-      <c r="J139" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L139" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M139" s="12">
-        <v>0</v>
-      </c>
-      <c r="O139" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>yakuman_member_no INT UNSIGNED NOT NULL DEFAULT 0,</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B140" s="109"/>
-      <c r="C140" s="111"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="90"/>
-      <c r="J140" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L140" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M140" s="12"/>
-      <c r="O140" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>comment TEXT NULL ,</v>
-      </c>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B141" s="109"/>
-      <c r="C141" s="111"/>
+      <c r="C141" s="96"/>
       <c r="D141" s="29"/>
       <c r="E141" s="12" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
       <c r="H141" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I141" s="90"/>
+        <v>216</v>
+      </c>
+      <c r="I141" s="111"/>
       <c r="J141" s="1" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L141" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M141" s="12">
@@ -5172,223 +5152,225 @@
       </c>
       <c r="O141" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>end_yn TINYINT(1) NOT NULL DEFAULT 0,</v>
-      </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+        <v>yakuman_member_no INT UNSIGNED NOT NULL DEFAULT 0,</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B142" s="109"/>
-      <c r="C142" s="111"/>
-      <c r="D142" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" s="26"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="90"/>
-      <c r="J142" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K142" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L142" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M142" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C142" s="96"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F142" s="13"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="111"/>
+      <c r="J142" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L142" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M142" s="12"/>
       <c r="O142" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
+        <f t="shared" si="3"/>
+        <v>comment TEXT NULL ,</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143" s="109"/>
-      <c r="C143" s="111"/>
-      <c r="D143" s="96"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="29"/>
       <c r="E143" s="12" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="14"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="90"/>
+      <c r="H143" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I143" s="111"/>
       <c r="J143" s="1" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M143" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="M143" s="12">
+        <v>0</v>
+      </c>
       <c r="O143" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>created_by TEXT NULL ,</v>
+        <f t="shared" si="3"/>
+        <v>end_yn TINYINT(1) NOT NULL DEFAULT 0,</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144" s="109"/>
-      <c r="C144" s="111"/>
-      <c r="D144" s="96"/>
-      <c r="E144" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F144" s="13"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="90"/>
-      <c r="J144" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K144" s="1" t="s">
+      <c r="C144" s="96"/>
+      <c r="D144" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="26"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="111"/>
+      <c r="J144" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L144" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M144" s="12" t="s">
-        <v>44</v>
+      <c r="L144" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="O144" s="1" t="str">
-        <f t="shared" ref="O144:O156" si="4">CONCATENATE(J144," ",K144," ",L144," ",IF(ISBLANK(M144),"",CONCATENATE("DEFAULT ",M144)),",")</f>
-        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+        <f t="shared" si="0"/>
+        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
       </c>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B145" s="109"/>
-      <c r="C145" s="111"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F145" s="20"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="90"/>
-      <c r="J145" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K145" s="58" t="s">
+      <c r="C145" s="96"/>
+      <c r="D145" s="93"/>
+      <c r="E145" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="13"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="111"/>
+      <c r="J145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L145" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="M145" s="59" t="s">
-        <v>37</v>
-      </c>
+      <c r="L145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M145" s="12"/>
       <c r="O145" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
+        <f t="shared" si="0"/>
+        <v>created_by TEXT NULL ,</v>
       </c>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B146" s="109"/>
-      <c r="C146" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="D146" s="29"/>
+      <c r="C146" s="96"/>
+      <c r="D146" s="93"/>
       <c r="E146" s="12" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
       <c r="H146" s="15"/>
-      <c r="I146" s="89" t="s">
+      <c r="I146" s="111"/>
+      <c r="J146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M146" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O146" s="1" t="str">
+        <f t="shared" ref="O146:O158" si="4">CONCATENATE(J146," ",K146," ",L146," ",IF(ISBLANK(M146),"",CONCATENATE("DEFAULT ",M146)),",")</f>
+        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B147" s="109"/>
+      <c r="C147" s="96"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="20"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="111"/>
+      <c r="J147" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K147" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L147" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M147" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O147" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B148" s="109"/>
+      <c r="C148" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148" s="29"/>
+      <c r="E148" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="J146" s="61" t="s">
+      <c r="J148" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="K146" s="7" t="s">
+      <c r="K148" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L146" s="7" t="s">
+      <c r="L148" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M146" s="6"/>
-      <c r="O146" s="1" t="str">
+      <c r="M148" s="6"/>
+      <c r="O148" s="1" t="str">
         <f t="shared" si="4"/>
         <v>seq INT UNSIGNED AUTO_INCREMENT PRIMARY KEY ,</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B147" s="109"/>
-      <c r="C147" s="111"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F147" s="13"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I147" s="90"/>
-      <c r="J147" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M147" s="12"/>
-      <c r="O147" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>game_no INT UNSIGNED NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B148" s="109"/>
-      <c r="C148" s="111"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="13"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I148" s="90"/>
-      <c r="J148" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M148" s="12"/>
-      <c r="O148" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>member_no INT UNSIGNED NOT NULL ,</v>
-      </c>
-    </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B149" s="109"/>
-      <c r="C149" s="111"/>
+      <c r="C149" s="96"/>
       <c r="D149" s="29"/>
       <c r="E149" s="12" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="90"/>
-      <c r="J149" s="1" t="s">
-        <v>89</v>
+      <c r="H149" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I149" s="111"/>
+      <c r="J149" s="62" t="s">
+        <v>145</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>26</v>
@@ -5396,243 +5378,297 @@
       <c r="M149" s="12"/>
       <c r="O149" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>position VARCHAR(5) NOT NULL ,</v>
+        <v>game_no INT UNSIGNED NOT NULL ,</v>
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B150" s="109"/>
-      <c r="C150" s="111"/>
+      <c r="C150" s="96"/>
       <c r="D150" s="29"/>
       <c r="E150" s="12" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="90"/>
+      <c r="H150" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I150" s="111"/>
       <c r="J150" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M150" s="12">
-        <v>0</v>
-      </c>
+      <c r="M150" s="12"/>
       <c r="O150" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>score INT NOT NULL DEFAULT 0,</v>
+        <v>member_no INT UNSIGNED NOT NULL ,</v>
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B151" s="109"/>
-      <c r="C151" s="111"/>
+      <c r="C151" s="96"/>
       <c r="D151" s="29"/>
       <c r="E151" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="14"/>
       <c r="H151" s="15"/>
-      <c r="I151" s="90"/>
+      <c r="I151" s="111"/>
       <c r="J151" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M151" s="12">
-        <v>0</v>
-      </c>
+      <c r="M151" s="12"/>
       <c r="O151" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>rank SMALLINT NOT NULL DEFAULT 0,</v>
+        <v>position VARCHAR(5) NOT NULL ,</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B152" s="109"/>
-      <c r="C152" s="111"/>
+      <c r="C152" s="96"/>
       <c r="D152" s="29"/>
       <c r="E152" s="12" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="14"/>
       <c r="H152" s="15"/>
-      <c r="I152" s="90"/>
+      <c r="I152" s="111"/>
       <c r="J152" s="1" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M152" s="71" t="s">
-        <v>163</v>
+      <c r="M152" s="12">
+        <v>0</v>
       </c>
       <c r="O152" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>point DECIMAL(6, 2) NOT NULL DEFAULT 0.00,</v>
+        <v>score INT NOT NULL DEFAULT 0,</v>
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B153" s="109"/>
-      <c r="C153" s="111"/>
-      <c r="D153" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F153" s="26"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="90"/>
-      <c r="J153" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L153" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M153" s="6" t="s">
-        <v>43</v>
+      <c r="C153" s="96"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F153" s="13"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="111"/>
+      <c r="J153" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M153" s="12">
+        <v>0</v>
       </c>
       <c r="O153" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
+        <v>rank SMALLINT NOT NULL DEFAULT 0,</v>
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B154" s="109"/>
-      <c r="C154" s="111"/>
-      <c r="D154" s="96"/>
+      <c r="C154" s="96"/>
+      <c r="D154" s="29"/>
       <c r="E154" s="12" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="F154" s="13"/>
       <c r="G154" s="14"/>
       <c r="H154" s="15"/>
-      <c r="I154" s="90"/>
+      <c r="I154" s="111"/>
       <c r="J154" s="1" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M154" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="M154" s="71" t="s">
+        <v>163</v>
+      </c>
       <c r="O154" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>created_by TEXT NULL ,</v>
+        <v>point DECIMAL(6, 2) NOT NULL DEFAULT 0.00,</v>
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B155" s="109"/>
-      <c r="C155" s="111"/>
-      <c r="D155" s="96"/>
-      <c r="E155" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F155" s="13"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="90"/>
-      <c r="J155" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K155" s="1" t="s">
+      <c r="C155" s="96"/>
+      <c r="D155" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="26"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="111"/>
+      <c r="J155" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L155" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M155" s="12" t="s">
-        <v>44</v>
+      <c r="L155" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="O155" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+        <v>created_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B156" s="109"/>
-      <c r="C156" s="112"/>
-      <c r="D156" s="97"/>
-      <c r="E156" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F156" s="20"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="91"/>
-      <c r="J156" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K156" s="58" t="s">
+      <c r="C156" s="96"/>
+      <c r="D156" s="93"/>
+      <c r="E156" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="13"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="111"/>
+      <c r="J156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L156" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="M156" s="59" t="s">
-        <v>37</v>
-      </c>
+      <c r="L156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M156" s="12"/>
       <c r="O156" s="1" t="str">
         <f t="shared" si="4"/>
+        <v>created_by TEXT NULL ,</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B157" s="109"/>
+      <c r="C157" s="96"/>
+      <c r="D157" s="93"/>
+      <c r="E157" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="13"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="111"/>
+      <c r="J157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O157" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>modified_date DATETIME NOT NULL DEFAULT CURRENT_TIMESTMP ON UPDATE CURRENT_TIMESTAMP,</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B158" s="109"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" s="20"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="112"/>
+      <c r="J158" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K158" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M158" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O158" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>modified_by TEXT NOT NULL DEFAULT current_user() ON UPDATE current_user(),</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C31:C80"/>
-    <mergeCell ref="D31:D52"/>
-    <mergeCell ref="C122:C129"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="C112:C121"/>
-    <mergeCell ref="C146:C156"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="B100:B158"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="I148:I158"/>
+    <mergeCell ref="I132:I147"/>
+    <mergeCell ref="I100:I106"/>
+    <mergeCell ref="I114:I123"/>
+    <mergeCell ref="I124:I131"/>
+    <mergeCell ref="I107:I113"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B3:B98"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C83:C98"/>
+    <mergeCell ref="D55:D74"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D83:D98"/>
+    <mergeCell ref="I84:I98"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="C9:C30"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="B3:B96"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C81:C96"/>
-    <mergeCell ref="D53:D72"/>
-    <mergeCell ref="D73:D80"/>
-    <mergeCell ref="D81:D96"/>
-    <mergeCell ref="B98:B156"/>
-    <mergeCell ref="C130:C145"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="I146:I156"/>
-    <mergeCell ref="I130:I145"/>
-    <mergeCell ref="I82:I96"/>
-    <mergeCell ref="I98:I104"/>
-    <mergeCell ref="I112:I121"/>
-    <mergeCell ref="I122:I129"/>
-    <mergeCell ref="I105:I111"/>
+    <mergeCell ref="D23:D32"/>
+    <mergeCell ref="C11:C32"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C33:C82"/>
+    <mergeCell ref="D33:D54"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="C114:C123"/>
+    <mergeCell ref="C148:C158"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="D110:D113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
